--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32059-d4243456-Reviews-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>39</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Rodeway-Inn-Suites.h7100164.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529204252585&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=26d4b9e5-f21b-4a6c-ae26-a795bae4193a&amp;mctc=9&amp;exp_dp=79&amp;exp_ts=1529204253172&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,566 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r518579180-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>32059</t>
+  </si>
+  <si>
+    <t>4243456</t>
+  </si>
+  <si>
+    <t>518579180</t>
+  </si>
+  <si>
+    <t>08/28/2017</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>door locks did not work- people partying all night next door, came crashing in my room. police called. Went to office demanded my money back so I could leave and find another place to stay they refused. Did not sleep all night . The people that run this are so rude. Do yourself a favor do not waste your money</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r494709676-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>494709676</t>
+  </si>
+  <si>
+    <t>06/20/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend</t>
+  </si>
+  <si>
+    <t>The room was ok but I did not feel safe in the place. Funny individuals always hanging around the place.People moving up and down the floors all night and front desk did not care when I reported that someone had tried our room at 4 in the morning and I could not sleep after that.Would not recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>martinjonesca, Webmaster at Rodeway Inn &amp; Suites, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>The room was ok but I did not feel safe in the place. Funny individuals always hanging around the place.People moving up and down the floors all night and front desk did not care when I reported that someone had tried our room at 4 in the morning and I could not sleep after that.Would not recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r488549122-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>488549122</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t>Courteous, considerate management</t>
+  </si>
+  <si>
+    <t>The managers were friendly, courteous and considerate. They worked very hard to make me comfortable in my motel room. When I left my retainer in the motel room the manager went and found it and mailed it back to me in Kansas. These are really great people to do business with.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>martinjonesca, Webmaster at Rodeway Inn &amp; Suites, responded to this reviewResponded May 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2017</t>
+  </si>
+  <si>
+    <t>The managers were friendly, courteous and considerate. They worked very hard to make me comfortable in my motel room. When I left my retainer in the motel room the manager went and found it and mailed it back to me in Kansas. These are really great people to do business with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r468682117-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>468682117</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful ....... turn away now !! </t>
+  </si>
+  <si>
+    <t>On each occasion we tried to use the reception there was nobody manning it so we had to hang around waiting. Our room was the worst we have ever stayed in ..... it had an over powering smell as if a whole canister of deodorant had been used to mask a multitude of sins. Only one small light was working and the room felt so grubby that for the first time ever in a hotel I had to wear a pair of socks the whole time, even though it was stifling hot.Wi fi very slow and unpredictable, thankfully we only stayed for one night, could never have managed two !! MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>mesha p, Front Office Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>On each occasion we tried to use the reception there was nobody manning it so we had to hang around waiting. Our room was the worst we have ever stayed in ..... it had an over powering smell as if a whole canister of deodorant had been used to mask a multitude of sins. Only one small light was working and the room felt so grubby that for the first time ever in a hotel I had to wear a pair of socks the whole time, even though it was stifling hot.Wi fi very slow and unpredictable, thankfully we only stayed for one night, could never have managed two !! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r450761541-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>450761541</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>Clueless front desk personnell</t>
+  </si>
+  <si>
+    <t>I walked into this establishment to see if they had any rooms.  The attendant at the front desk ask me to hold on while he checked.  After waiting a few minutes he came back to tell me to hold on a couple of more times.  I then asked him what the room rates were and kept telling me to hold on.  I waited about 15 minutes for him to finally tell me that he had a room and the price was 89.00 plus tax.   He then proceeded to tell me that it was additional $10 for each visitor.  He then told me the total with taxes was 107.81 but when I went to sign the receipt the total was $108.00 he told me he made an error.
+Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk...I walked into this establishment to see if they had any rooms.  The attendant at the front desk ask me to hold on while he checked.  After waiting a few minutes he came back to tell me to hold on a couple of more times.  I then asked him what the room rates were and kept telling me to hold on.  I waited about 15 minutes for him to finally tell me that he had a room and the price was 89.00 plus tax.   He then proceeded to tell me that it was additional $10 for each visitor.  He then told me the total with taxes was 107.81 but when I went to sign the receipt the total was $108.00 he told me he made an error.Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk again..Just from the check in process standpoint I would never stay here again:(MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>mesha p, Guest Relations Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded January 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2017</t>
+  </si>
+  <si>
+    <t>I walked into this establishment to see if they had any rooms.  The attendant at the front desk ask me to hold on while he checked.  After waiting a few minutes he came back to tell me to hold on a couple of more times.  I then asked him what the room rates were and kept telling me to hold on.  I waited about 15 minutes for him to finally tell me that he had a room and the price was 89.00 plus tax.   He then proceeded to tell me that it was additional $10 for each visitor.  He then told me the total with taxes was 107.81 but when I went to sign the receipt the total was $108.00 he told me he made an error.
+Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk...I walked into this establishment to see if they had any rooms.  The attendant at the front desk ask me to hold on while he checked.  After waiting a few minutes he came back to tell me to hold on a couple of more times.  I then asked him what the room rates were and kept telling me to hold on.  I waited about 15 minutes for him to finally tell me that he had a room and the price was 89.00 plus tax.   He then proceeded to tell me that it was additional $10 for each visitor.  He then told me the total with taxes was 107.81 but when I went to sign the receipt the total was $108.00 he told me he made an error.Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk again..Just from the check in process standpoint I would never stay here again:(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r435589765-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>435589765</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>Not as expectEd nor what was offered</t>
+  </si>
+  <si>
+    <t>I booked this hotel through a third party and was very disappointed to find out it was nothing like what the ad had offered.  Right out of the gate, they offered free wifi, and I was even given the login info at the front desk.  Neither of my devices (laptop/iPad) were able to connect.  I called the front desk and was told they were resetting it and it would be available in 15 minutes.  Never did come on.  They ad also offered breakfast, which I see is a toast beside a coffee pot and an empty rack which at some time may have had English muffins or something of sorts.  Again, not the case!Next, issues with the room; photos included are of the disgusting stained chair for were I would have had to sit if I had wifi and was able to conduct my end of day business reports, the beaten and cracked AC unit, the rattling shower nossle to name a few.  There were spider webs under the sink and stains in the carpets as well.This was a 3 Star property with a price to match that in the neighborhood.  I would stay far away from this property and book someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>mesha p, Front Office Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded November 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel through a third party and was very disappointed to find out it was nothing like what the ad had offered.  Right out of the gate, they offered free wifi, and I was even given the login info at the front desk.  Neither of my devices (laptop/iPad) were able to connect.  I called the front desk and was told they were resetting it and it would be available in 15 minutes.  Never did come on.  They ad also offered breakfast, which I see is a toast beside a coffee pot and an empty rack which at some time may have had English muffins or something of sorts.  Again, not the case!Next, issues with the room; photos included are of the disgusting stained chair for were I would have had to sit if I had wifi and was able to conduct my end of day business reports, the beaten and cracked AC unit, the rattling shower nossle to name a few.  There were spider webs under the sink and stains in the carpets as well.This was a 3 Star property with a price to match that in the neighborhood.  I would stay far away from this property and book someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r355118082-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>355118082</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodeway </t>
+  </si>
+  <si>
+    <t>Very clean, well maintained, spacious rooms, they all have microwaves and refrigerators, ac/heater units all in good order. The gentlemen at the front desk are always very polite and professional. The price is reasonable for the room and location. This hotel also is conveniently next to a super market, CVS, and various food establishments. Nearby freeways also a plus! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Very clean, well maintained, spacious rooms, they all have microwaves and refrigerators, ac/heater units all in good order. The gentlemen at the front desk are always very polite and professional. The price is reasonable for the room and location. This hotel also is conveniently next to a super market, CVS, and various food establishments. Nearby freeways also a plus! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r319067387-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>319067387</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Canceled with no notice</t>
+  </si>
+  <si>
+    <t>I booked this hotel for one night as we were driving in late at night and needed a place to sleep for 6 hours then head to Disneyland. Well lets just say on my drive about 2 hours away I notice a missed call from the hotel mind you it was an hour later when I noticed it so I called back the man who picked hardly spoke english and answered with a "Hello" am I calling a business or someones home!?! He tells me my credit card who declined and that he sold my room because I didn't call him back and the hotel is sold out so I need to call Choice.com and have them find me another room. I call my credit card company and was told he didn't type in the correct expiration date. I called back to ask him what information he entered he was completely rude!!! Thanks to Choice.com for finding me a room that I had to pay more drive further out for but at that point I was over it and tired. Hire english speaking people for costumer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>I booked this hotel for one night as we were driving in late at night and needed a place to sleep for 6 hours then head to Disneyland. Well lets just say on my drive about 2 hours away I notice a missed call from the hotel mind you it was an hour later when I noticed it so I called back the man who picked hardly spoke english and answered with a "Hello" am I calling a business or someones home!?! He tells me my credit card who declined and that he sold my room because I didn't call him back and the hotel is sold out so I need to call Choice.com and have them find me another room. I call my credit card company and was told he didn't type in the correct expiration date. I called back to ask him what information he entered he was completely rude!!! Thanks to Choice.com for finding me a room that I had to pay more drive further out for but at that point I was over it and tired. Hire english speaking people for costumer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r312334517-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>312334517</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t>Stayed Friday and Saturday night. Room was clean and maintained properly. Evenings were organized, pleasant and quiet on the premises. Staff was courteous and professional. Last, but not least, every morning they served a free continental breakfast. I would recommend this hotel to my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed Friday and Saturday night. Room was clean and maintained properly. Evenings were organized, pleasant and quiet on the premises. Staff was courteous and professional. Last, but not least, every morning they served a free continental breakfast. I would recommend this hotel to my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r279068566-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>279068566</t>
+  </si>
+  <si>
+    <t>06/09/2015</t>
+  </si>
+  <si>
+    <t>Just stopping for rest</t>
+  </si>
+  <si>
+    <t>.............I was there a few months ago I love it service was great and very nice and clean free parking ..............................I want to return again soon for business but I never ask ......How much to stay for a hour or two hours :-)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded June 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2015</t>
+  </si>
+  <si>
+    <t>.............I was there a few months ago I love it service was great and very nice and clean free parking ..............................I want to return again soon for business but I never ask ......How much to stay for a hour or two hours :-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r263000876-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>263000876</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>"Ron's the man, everyone else needs to take pointers"</t>
+  </si>
+  <si>
+    <t>So while searching for a hotel to get away for the weekend  I stumbled across the Rodeway Inn and suits in bellflower. My very first visit was very pleasant because we encountered a friendly gentelmen that worked there by the name of Ron. He was very helpful during the booking, checking in and out process. The rooms were way better than expected; they were clean and very well-maintained. Tv was a good size with various channels to choose from and the bed was very confortable. Only negative experience was some of the customer service received through telephone communication but other than that we will continue to visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded April 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2015</t>
+  </si>
+  <si>
+    <t>So while searching for a hotel to get away for the weekend  I stumbled across the Rodeway Inn and suits in bellflower. My very first visit was very pleasant because we encountered a friendly gentelmen that worked there by the name of Ron. He was very helpful during the booking, checking in and out process. The rooms were way better than expected; they were clean and very well-maintained. Tv was a good size with various channels to choose from and the bed was very confortable. Only negative experience was some of the customer service received through telephone communication but other than that we will continue to visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r261812178-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>261812178</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>Good Motel with slow Wifi</t>
+  </si>
+  <si>
+    <t>I was looking for a clean Hotel/Motel in LA and stumbled upon the Rodeway at Bellflower. Was a good deal :-) nice and friendly staff, average rate, cleanliness was OK except a few minor points. Found a lot of fingerprints on the board at the bed-head, some black hair between the fresh towels and on the bed, a chewing gum at the carpet and a dirty plate in the microwave. The Wifi was the worst I ever got. Would I come back? Yes, but it would be nice if you worked on the negative points.Btw, whoever stays here should give the Alondra Hot Wings (just down the street) a visit ;-)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded March 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2015</t>
+  </si>
+  <si>
+    <t>I was looking for a clean Hotel/Motel in LA and stumbled upon the Rodeway at Bellflower. Was a good deal :-) nice and friendly staff, average rate, cleanliness was OK except a few minor points. Found a lot of fingerprints on the board at the bed-head, some black hair between the fresh towels and on the bed, a chewing gum at the carpet and a dirty plate in the microwave. The Wifi was the worst I ever got. Would I come back? Yes, but it would be nice if you worked on the negative points.Btw, whoever stays here should give the Alondra Hot Wings (just down the street) a visit ;-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r244223688-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>244223688</t>
+  </si>
+  <si>
+    <t>12/12/2014</t>
+  </si>
+  <si>
+    <t>Cheap and Clean.</t>
+  </si>
+  <si>
+    <t>If you are looking for cheap deal then this is the place to be, rooms seems to have recently renovated, flat screen TV, new non-stinky carpet, firm bed, friendly staff, daily house keeping. You may find some shady characters around this hotel and may be 2-3 living in hotel but I found they were harmless and non-threatening. Breakfast starts after 7:00am so don't count on early breakfast, checkered neighborhood gave me perception of unsafe area, but after staying 4 days I had no problems whatsoever. If you have your own laptop with you then make sure you request front desk staff so they give you room with strong WiFi signals.Room had no "Do Not Disturb" sign, I requested for one but I never got one, during my 4 days stay I needed some ice, but machine was broke, finally I went to buy ice from outside. Best place about this hotel is its location, not far from highways, stores, restaurants, gas stations, bank everything is just about in a walking distance. Am I going to come back to stay here again, "YES".MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>If you are looking for cheap deal then this is the place to be, rooms seems to have recently renovated, flat screen TV, new non-stinky carpet, firm bed, friendly staff, daily house keeping. You may find some shady characters around this hotel and may be 2-3 living in hotel but I found they were harmless and non-threatening. Breakfast starts after 7:00am so don't count on early breakfast, checkered neighborhood gave me perception of unsafe area, but after staying 4 days I had no problems whatsoever. If you have your own laptop with you then make sure you request front desk staff so they give you room with strong WiFi signals.Room had no "Do Not Disturb" sign, I requested for one but I never got one, during my 4 days stay I needed some ice, but machine was broke, finally I went to buy ice from outside. Best place about this hotel is its location, not far from highways, stores, restaurants, gas stations, bank everything is just about in a walking distance. Am I going to come back to stay here again, "YES".More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r241163247-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>241163247</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Ok at best-street access very poor/dangerous</t>
+  </si>
+  <si>
+    <t>Our bath towels were rough, short and we were shorted an entire set of towels on second night.  The office gave us more.  Two large holes in one bath towel: about 6 inches in diameter and 3 inches in diameter. Both nights we stayed face and hand towels we received as for just one person.MoreShow less</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2014</t>
+  </si>
+  <si>
+    <t>Our bath towels were rough, short and we were shorted an entire set of towels on second night.  The office gave us more.  Two large holes in one bath towel: about 6 inches in diameter and 3 inches in diameter. Both nights we stayed face and hand towels we received as for just one person.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r237094240-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>237094240</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>A decent rodeway...</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice...rooms are updated and have new tvs....they just need to maintain what's in the rooms so that they look nice. The area is quiet and had a good stay.My only issue was the staff being slow and as in previous reviews a bit rude when it comes to check out time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded November 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2014</t>
+  </si>
+  <si>
+    <t>The hotel itself is nice...rooms are updated and have new tvs....they just need to maintain what's in the rooms so that they look nice. The area is quiet and had a good stay.My only issue was the staff being slow and as in previous reviews a bit rude when it comes to check out time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r205736339-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>205736339</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>The young man working the front desk was great!!</t>
+  </si>
+  <si>
+    <t>Ron was very polite and respectful. The young man did everything to accommodate me and my family. The one complaint is the police harassment. Totally over the top!!! Besides that my stay was great thank you.  MoreShow less</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded May 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2014</t>
+  </si>
+  <si>
+    <t>Ron was very polite and respectful. The young man did everything to accommodate me and my family. The one complaint is the police harassment. Totally over the top!!! Besides that my stay was great thank you.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r192751652-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>192751652</t>
+  </si>
+  <si>
+    <t>02/01/2014</t>
+  </si>
+  <si>
+    <t>Disgusting!</t>
+  </si>
+  <si>
+    <t>Our room was filthy!!  Pubic hairs on the toilet seat and the entire bathroom was absolutely disgusting.  But wait, that was the most pleasant experience of our stay.  When we arrived there was an "escort" on the balcony talking on her cell phone asking if the other person wanted to play now or later.  We were put right underneath her room.  It was hardly conducive to a restful stay.  It's difficult to sleep with banging beds, showers running and financial transactions being conducted right above your head.  If you're looking for a "real good time," this is apparently the place to go.  However, families and business travelers should stay far away.  They really should put their regular guests in a different location of their hotel than the paid intimate companions.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>bellflowercenturyinn, Webmaster at Rodeway Inn &amp; Suites, responded to this reviewResponded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2014</t>
+  </si>
+  <si>
+    <t>Our room was filthy!!  Pubic hairs on the toilet seat and the entire bathroom was absolutely disgusting.  But wait, that was the most pleasant experience of our stay.  When we arrived there was an "escort" on the balcony talking on her cell phone asking if the other person wanted to play now or later.  We were put right underneath her room.  It was hardly conducive to a restful stay.  It's difficult to sleep with banging beds, showers running and financial transactions being conducted right above your head.  If you're looking for a "real good time," this is apparently the place to go.  However, families and business travelers should stay far away.  They really should put their regular guests in a different location of their hotel than the paid intimate companions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r185526726-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>185526726</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Ehh..</t>
+  </si>
+  <si>
+    <t>The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next...The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next morning, we didn't want our room cleaned, and we called to ask if they had any "DND" signs, and said no, very angrily. After the first night, my boyfriend and I were pretty tired from a long night out. We were still in bed around 10:30 am, and we hear a pounding on our door telling us it's time to check out. Umm.. we paid for two nights, not one. My boyfriend opened the door and tried to tell the yelling man that we still had another day to stay, and the man just kept telling us that we're wrong, and that we need to leave. We called front desk and he said we were right and that we shouldn't be bothered anymore. Very unprofessional. PLUS, check out time is at 11 am! Even if I was suppose to check out, I still had another 30 mins! I also heard from other customers that they saw staff peeping into rooms to see if people were still in there to see if they could clean. Honestly, I really liked my room, but the staff were just very unprofessional. If you want random people banging on your door, walking into your room uninvited and peeping through your windows, then this motel is perfect for you. I highly doubt I'll stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>bellflowercenturyinn, Webmaster at Rodeway Inn &amp; Suites, responded to this reviewResponded December 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2013</t>
+  </si>
+  <si>
+    <t>The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next...The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next morning, we didn't want our room cleaned, and we called to ask if they had any "DND" signs, and said no, very angrily. After the first night, my boyfriend and I were pretty tired from a long night out. We were still in bed around 10:30 am, and we hear a pounding on our door telling us it's time to check out. Umm.. we paid for two nights, not one. My boyfriend opened the door and tried to tell the yelling man that we still had another day to stay, and the man just kept telling us that we're wrong, and that we need to leave. We called front desk and he said we were right and that we shouldn't be bothered anymore. Very unprofessional. PLUS, check out time is at 11 am! Even if I was suppose to check out, I still had another 30 mins! I also heard from other customers that they saw staff peeping into rooms to see if people were still in there to see if they could clean. Honestly, I really liked my room, but the staff were just very unprofessional. If you want random people banging on your door, walking into your room uninvited and peeping through your windows, then this motel is perfect for you. I highly doubt I'll stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165785782-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>165785782</t>
+  </si>
+  <si>
+    <t>06/30/2013</t>
+  </si>
+  <si>
+    <t>Great experience!</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here for 3 nights and it was great! The room was very clean and comfortable. The bathroom was amazing with marble countertop, and and relaxing shower. The room was equipped with a mini fridge and a microwave which I loved. The rooms were also very quiet. The staff is very friendly and polite. I spoke to the manager because my girlfriend had spilled some wine and he was so understanding and polite. I recommend this place to anyone. The rate was very affordable, the staff is great, and the room was amazing. I can't wait to return! Keep up the great work! MoreShow less</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded July 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2013</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed here for 3 nights and it was great! The room was very clean and comfortable. The bathroom was amazing with marble countertop, and and relaxing shower. The room was equipped with a mini fridge and a microwave which I loved. The rooms were also very quiet. The staff is very friendly and polite. I spoke to the manager because my girlfriend had spilled some wine and he was so understanding and polite. I recommend this place to anyone. The rate was very affordable, the staff is great, and the room was amazing. I can't wait to return! Keep up the great work! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165698055-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>165698055</t>
+  </si>
+  <si>
+    <t>06/29/2013</t>
+  </si>
+  <si>
+    <t>"A great getaway"</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 3 nights and it was definitely worth the cost. The manager and his team were very friendly, and the room was just so clean and everything looked new- which is rare for a place at this price. I feel so sorry that I spilled wine on their clean, white sheets; but my boyfriend told the manager and he was very gracious about it. I highly recommend this place. Not to mention there are good places to eat around!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>My boyfriend and I stayed here for 3 nights and it was definitely worth the cost. The manager and his team were very friendly, and the room was just so clean and everything looked new- which is rare for a place at this price. I feel so sorry that I spilled wine on their clean, white sheets; but my boyfriend told the manager and he was very gracious about it. I highly recommend this place. Not to mention there are good places to eat around!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165142268-Rodeway_Inn_Suites-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>165142268</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>Real Value for your Money!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for a week (as walk-in guests) but we were so amazed with the place-the room was sooooo clean, smells so good, with new carpet, as in EVERYTHING'S CLEAN AND WELL-MAINTAINED!!! and that is, for a very reasonable rates! (not to mention their complimentary breakfast) And there's more! The manager, Jay, as well his personnel, were all very polite, friendly and customer-oriented! I know this sounds too good to be true, but check it out and see for yourself..frequent visit is highly recommended!MoreShow less</t>
+  </si>
+  <si>
+    <t>mesha p, Manager at Rodeway Inn &amp; Suites, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed there for a week (as walk-in guests) but we were so amazed with the place-the room was sooooo clean, smells so good, with new carpet, as in EVERYTHING'S CLEAN AND WELL-MAINTAINED!!! and that is, for a very reasonable rates! (not to mention their complimentary breakfast) And there's more! The manager, Jay, as well his personnel, were all very polite, friendly and customer-oriented! I know this sounds too good to be true, but check it out and see for yourself..frequent visit is highly recommended!More</t>
   </si>
 </sst>
 </file>
@@ -643,6 +1203,1375 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>60</v>
+      </c>
+      <c r="X3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>97</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>115</v>
+      </c>
+      <c r="O9" t="s">
+        <v>116</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>117</v>
+      </c>
+      <c r="X9" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" t="s">
+        <v>123</v>
+      </c>
+      <c r="L10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>125</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>134</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>135</v>
+      </c>
+      <c r="X11" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" t="s">
+        <v>140</v>
+      </c>
+      <c r="K12" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" t="s">
+        <v>142</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>144</v>
+      </c>
+      <c r="X12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
+      <c r="L13" t="s">
+        <v>151</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>152</v>
+      </c>
+      <c r="O13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>156</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" t="s">
+        <v>88</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+      <c r="X14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>176</v>
+      </c>
+      <c r="O16" t="s">
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>177</v>
+      </c>
+      <c r="X16" t="s">
+        <v>178</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>181</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s">
+        <v>184</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>185</v>
+      </c>
+      <c r="X17" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J18" t="s">
+        <v>190</v>
+      </c>
+      <c r="K18" t="s">
+        <v>191</v>
+      </c>
+      <c r="L18" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>193</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>194</v>
+      </c>
+      <c r="X18" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>198</v>
+      </c>
+      <c r="J19" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>203</v>
+      </c>
+      <c r="X19" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>206</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
+      </c>
+      <c r="J20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K20" t="s">
+        <v>209</v>
+      </c>
+      <c r="L20" t="s">
+        <v>210</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s"/>
+      <c r="O20" t="s"/>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>211</v>
+      </c>
+      <c r="X20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>215</v>
+      </c>
+      <c r="J21" t="s">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s">
+        <v>217</v>
+      </c>
+      <c r="L21" t="s">
+        <v>218</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>219</v>
+      </c>
+      <c r="O21" t="s">
+        <v>78</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>49598</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_663.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="250">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Georgi D</t>
+  </si>
+  <si>
     <t>07/10/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Maria M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r494709676-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>The room was ok but I did not feel safe in the place. Funny individuals always hanging around the place.People moving up and down the floors all night and front desk did not care when I reported that someone had tried our room at 4 in the morning and I could not sleep after that.Would not recommend this place.More</t>
   </si>
   <si>
+    <t>Sarah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r488549122-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>The managers were friendly, courteous and considerate. They worked very hard to make me comfortable in my motel room. When I left my retainer in the motel room the manager went and found it and mailed it back to me in Kansas. These are really great people to do business with.More</t>
   </si>
   <si>
+    <t>Mrs E E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r468682117-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -262,6 +274,9 @@
   </si>
   <si>
     <t>On each occasion we tried to use the reception there was nobody manning it so we had to hang around waiting. Our room was the worst we have ever stayed in ..... it had an over powering smell as if a whole canister of deodorant had been used to mask a multitude of sins. Only one small light was working and the room felt so grubby that for the first time ever in a hotel I had to wear a pair of socks the whole time, even though it was stifling hot.Wi fi very slow and unpredictable, thankfully we only stayed for one night, could never have managed two !! More</t>
+  </si>
+  <si>
+    <t>youngburt</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r450761541-Rodeway_Inn_Suites-Bellflower_California.html</t>
@@ -296,6 +311,9 @@
 Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk...I walked into this establishment to see if they had any rooms.  The attendant at the front desk ask me to hold on while he checked.  After waiting a few minutes he came back to tell me to hold on a couple of more times.  I then asked him what the room rates were and kept telling me to hold on.  I waited about 15 minutes for him to finally tell me that he had a room and the price was 89.00 plus tax.   He then proceeded to tell me that it was additional $10 for each visitor.  He then told me the total with taxes was 107.81 but when I went to sign the receipt the total was $108.00 he told me he made an error.Upon entering my room the maid was still cleaning it so i waited for her to finish and then entered my room.  The appearance of the room was very nice but that was just the appearance.  Once I sat on the bed I discovered a big hole in the middle that I sunk into. There was no drain plug for the bathtub and the toilet seat was practically falling off.  The towels are big enough for a child or a teenager but not for grown adult.  Normally I would have complained but it was such an ordeal to check in that I was tired and didn't want to deal with the front desk again..Just from the check in process standpoint I would never stay here again:(More</t>
   </si>
   <si>
+    <t>Barry O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r435589765-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -323,6 +341,9 @@
     <t>I booked this hotel through a third party and was very disappointed to find out it was nothing like what the ad had offered.  Right out of the gate, they offered free wifi, and I was even given the login info at the front desk.  Neither of my devices (laptop/iPad) were able to connect.  I called the front desk and was told they were resetting it and it would be available in 15 minutes.  Never did come on.  They ad also offered breakfast, which I see is a toast beside a coffee pot and an empty rack which at some time may have had English muffins or something of sorts.  Again, not the case!Next, issues with the room; photos included are of the disgusting stained chair for were I would have had to sit if I had wifi and was able to conduct my end of day business reports, the beaten and cracked AC unit, the rattling shower nossle to name a few.  There were spider webs under the sink and stains in the carpets as well.This was a 3 Star property with a price to match that in the neighborhood.  I would stay far away from this property and book someplace else.More</t>
   </si>
   <si>
+    <t>Melenie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r355118082-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -350,6 +371,9 @@
     <t>Very clean, well maintained, spacious rooms, they all have microwaves and refrigerators, ac/heater units all in good order. The gentlemen at the front desk are always very polite and professional. The price is reasonable for the room and location. This hotel also is conveniently next to a super market, CVS, and various food establishments. Nearby freeways also a plus! :)More</t>
   </si>
   <si>
+    <t>Chela26</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r319067387-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -380,6 +404,9 @@
     <t>I booked this hotel for one night as we were driving in late at night and needed a place to sleep for 6 hours then head to Disneyland. Well lets just say on my drive about 2 hours away I notice a missed call from the hotel mind you it was an hour later when I noticed it so I called back the man who picked hardly spoke english and answered with a "Hello" am I calling a business or someones home!?! He tells me my credit card who declined and that he sold my room because I didn't call him back and the hotel is sold out so I need to call Choice.com and have them find me another room. I call my credit card company and was told he didn't type in the correct expiration date. I called back to ask him what information he entered he was completely rude!!! Thanks to Choice.com for finding me a room that I had to pay more drive further out for but at that point I was over it and tired. Hire english speaking people for costumer service!More</t>
   </si>
   <si>
+    <t>fox641</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r312334517-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -407,6 +434,9 @@
     <t>Stayed Friday and Saturday night. Room was clean and maintained properly. Evenings were organized, pleasant and quiet on the premises. Staff was courteous and professional. Last, but not least, every morning they served a free continental breakfast. I would recommend this hotel to my friends and family.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r279068566-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -434,6 +464,9 @@
     <t>.............I was there a few months ago I love it service was great and very nice and clean free parking ..............................I want to return again soon for business but I never ask ......How much to stay for a hour or two hours :-)More</t>
   </si>
   <si>
+    <t>hellopuppet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r263000876-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -461,6 +494,9 @@
     <t>So while searching for a hotel to get away for the weekend  I stumbled across the Rodeway Inn and suits in bellflower. My very first visit was very pleasant because we encountered a friendly gentelmen that worked there by the name of Ron. He was very helpful during the booking, checking in and out process. The rooms were way better than expected; they were clean and very well-maintained. Tv was a good size with various channels to choose from and the bed was very confortable. Only negative experience was some of the customer service received through telephone communication but other than that we will continue to visit.More</t>
   </si>
   <si>
+    <t>Eike_R82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r261812178-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -488,6 +524,9 @@
     <t>I was looking for a clean Hotel/Motel in LA and stumbled upon the Rodeway at Bellflower. Was a good deal :-) nice and friendly staff, average rate, cleanliness was OK except a few minor points. Found a lot of fingerprints on the board at the bed-head, some black hair between the fresh towels and on the bed, a chewing gum at the carpet and a dirty plate in the microwave. The Wifi was the worst I ever got. Would I come back? Yes, but it would be nice if you worked on the negative points.Btw, whoever stays here should give the Alondra Hot Wings (just down the street) a visit ;-)More</t>
   </si>
   <si>
+    <t>sidnamshe1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r244223688-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -509,6 +548,9 @@
     <t>If you are looking for cheap deal then this is the place to be, rooms seems to have recently renovated, flat screen TV, new non-stinky carpet, firm bed, friendly staff, daily house keeping. You may find some shady characters around this hotel and may be 2-3 living in hotel but I found they were harmless and non-threatening. Breakfast starts after 7:00am so don't count on early breakfast, checkered neighborhood gave me perception of unsafe area, but after staying 4 days I had no problems whatsoever. If you have your own laptop with you then make sure you request front desk staff so they give you room with strong WiFi signals.Room had no "Do Not Disturb" sign, I requested for one but I never got one, during my 4 days stay I needed some ice, but machine was broke, finally I went to buy ice from outside. Best place about this hotel is its location, not far from highways, stores, restaurants, gas stations, bank everything is just about in a walking distance. Am I going to come back to stay here again, "YES".More</t>
   </si>
   <si>
+    <t>Bsldysteve</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r241163247-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -533,6 +575,9 @@
     <t>Our bath towels were rough, short and we were shorted an entire set of towels on second night.  The office gave us more.  Two large holes in one bath towel: about 6 inches in diameter and 3 inches in diameter. Both nights we stayed face and hand towels we received as for just one person.More</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r237094240-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -560,6 +605,9 @@
     <t>The hotel itself is nice...rooms are updated and have new tvs....they just need to maintain what's in the rooms so that they look nice. The area is quiet and had a good stay.My only issue was the staff being slow and as in previous reviews a bit rude when it comes to check out time.More</t>
   </si>
   <si>
+    <t>casualv42</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r205736339-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -584,6 +632,9 @@
     <t>Ron was very polite and respectful. The young man did everything to accommodate me and my family. The one complaint is the police harassment. Totally over the top!!! Besides that my stay was great thank you.  More</t>
   </si>
   <si>
+    <t>sherml</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r192751652-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -611,6 +662,9 @@
     <t>Our room was filthy!!  Pubic hairs on the toilet seat and the entire bathroom was absolutely disgusting.  But wait, that was the most pleasant experience of our stay.  When we arrived there was an "escort" on the balcony talking on her cell phone asking if the other person wanted to play now or later.  We were put right underneath her room.  It was hardly conducive to a restful stay.  It's difficult to sleep with banging beds, showers running and financial transactions being conducted right above your head.  If you're looking for a "real good time," this is apparently the place to go.  However, families and business travelers should stay far away.  They really should put their regular guests in a different location of their hotel than the paid intimate companions.More</t>
   </si>
   <si>
+    <t>mcdeezy206</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r185526726-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -638,6 +692,9 @@
     <t>The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next...The 1 out of 5 is because I really liked the room, other than that.. I wasn't too fond of anything else. I feel like the staff lacks a lot of professionalism. When I checked it, the guy at the front desk seemed to be very young and didn't seem to put any effort into what he was doing. I gave him my ID, the card that we bought the room from and a couple minutes later, he just handed me our room key and didn't say a word. He didn't bother to tell me where our room was. So i asked him where our room is located and he just said "Just drive over there, you'll find it." Umm.. thanks for being specific. I was super annoyed but decided to let it go. We found our room (on our own) and it was quite nice. New furniture and all, but I could tell the room was still somewhat bare. Not even after 30 minutes settling into our room, we got a disturbing bang on our door. My boyfriend opened the door, and some guy just walks right in and says he needs to do a room count. We didn't even invite him in yet and he's already halfway across the room and peeping into our bathroom. I personally felt invaded. and what I dislike even more is that this motel didn't even have "Do not disturb" signs. The next morning, we didn't want our room cleaned, and we called to ask if they had any "DND" signs, and said no, very angrily. After the first night, my boyfriend and I were pretty tired from a long night out. We were still in bed around 10:30 am, and we hear a pounding on our door telling us it's time to check out. Umm.. we paid for two nights, not one. My boyfriend opened the door and tried to tell the yelling man that we still had another day to stay, and the man just kept telling us that we're wrong, and that we need to leave. We called front desk and he said we were right and that we shouldn't be bothered anymore. Very unprofessional. PLUS, check out time is at 11 am! Even if I was suppose to check out, I still had another 30 mins! I also heard from other customers that they saw staff peeping into rooms to see if people were still in there to see if they could clean. Honestly, I really liked my room, but the staff were just very unprofessional. If you want random people banging on your door, walking into your room uninvited and peeping through your windows, then this motel is perfect for you. I highly doubt I'll stay here again.More</t>
   </si>
   <si>
+    <t>Ponyboylx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165785782-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -662,6 +719,9 @@
     <t>My girlfriend and I stayed here for 3 nights and it was great! The room was very clean and comfortable. The bathroom was amazing with marble countertop, and and relaxing shower. The room was equipped with a mini fridge and a microwave which I loved. The rooms were also very quiet. The staff is very friendly and polite. I spoke to the manager because my girlfriend had spilled some wine and he was so understanding and polite. I recommend this place to anyone. The rate was very affordable, the staff is great, and the room was amazing. I can't wait to return! Keep up the great work! More</t>
   </si>
   <si>
+    <t>Sol R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165698055-Rodeway_Inn_Suites-Bellflower_California.html</t>
   </si>
   <si>
@@ -681,6 +741,9 @@
   </si>
   <si>
     <t>My boyfriend and I stayed here for 3 nights and it was definitely worth the cost. The manager and his team were very friendly, and the room was just so clean and everything looked new- which is rare for a place at this price. I feel so sorry that I spilled wine on their clean, white sheets; but my boyfriend told the manager and he was very gracious about it. I highly recommend this place. Not to mention there are good places to eat around!More</t>
+  </si>
+  <si>
+    <t>Jose F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d4243456-r165142268-Rodeway_Inn_Suites-Bellflower_California.html</t>
@@ -1207,43 +1270,47 @@
       <c r="A2" t="n">
         <v>49598</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1263,50 +1330,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>49598</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1318,56 +1389,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>49598</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1385,56 +1460,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>49598</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1446,56 +1525,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>49598</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="n">
@@ -1513,56 +1596,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>49598</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>1</v>
@@ -1580,56 +1667,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Y7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>49598</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="L8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1641,56 +1732,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>49598</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1706,56 +1801,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="X9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>49598</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="L10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1773,56 +1872,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Y10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>49598</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1834,56 +1937,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="X11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>49598</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="J12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="K12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="O12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1895,56 +2002,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="X12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>49598</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="J13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="K13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1962,56 +2073,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X13" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y13" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>49598</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2027,47 +2142,51 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="X14" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="Y14" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>49598</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>176</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="J15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="K15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
@@ -2094,56 +2213,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="X15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Y15" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>49598</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="J16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="K16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="L16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="O16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2155,47 +2278,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="X16" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="Y16" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>49598</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
@@ -2222,56 +2349,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="X17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="Y17" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>49598</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>204</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="K18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2283,56 +2414,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="X18" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Y18" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>49598</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>214</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="J19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="K19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P19" t="n">
         <v>2</v>
@@ -2354,47 +2489,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="X19" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>49598</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>224</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="J20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
@@ -2421,56 +2560,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="X20" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Y20" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>49598</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>233</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="J21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="L21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2492,56 +2635,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Y21" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>49598</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="J22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="L22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="O22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2563,13 +2710,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="X22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="Y22" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
